--- a/StructureDefinition-ext-R5-ResearchSubject.progress.xlsx
+++ b/StructureDefinition-ext-R5-ResearchSubject.progress.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `ResearchSubject.progress` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `ResearchSubject.progress` is mapped to FHIR R4 structure `ResearchSubject`, but has no target element specified.</t>
+Element `ResearchSubject.progress` is will have a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:ResearchSubject</t>
   </si>
   <si>
     <t>ID</t>
@@ -343,7 +343,7 @@
   </si>
   <si>
     <t>Element `ResearchSubject.progress.type` is part of an existing definition because parent element `ResearchSubject.progress` requires a cross-version extension.
-Element `ResearchSubject.progress.type` is mapped to FHIR R4 structure `ResearchSubject`, but has no target element specified.</t>
+Element `ResearchSubject.progress.type` is will have a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -426,7 +426,7 @@
   </si>
   <si>
     <t>Element `ResearchSubject.progress.subjectState` is part of an existing definition because parent element `ResearchSubject.progress` requires a cross-version extension.
-Element `ResearchSubject.progress.subjectState` is mapped to FHIR R4 structure `ResearchSubject`, but has no target element specified.</t>
+Element `ResearchSubject.progress.subjectState` is will have a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
   </si>
   <si>
     <t>Extension.extension:subjectState.id</t>
@@ -457,7 +457,7 @@
   </si>
   <si>
     <t>Element `ResearchSubject.progress.milestone` is part of an existing definition because parent element `ResearchSubject.progress` requires a cross-version extension.
-Element `ResearchSubject.progress.milestone` is mapped to FHIR R4 structure `ResearchSubject`, but has no target element specified.</t>
+Element `ResearchSubject.progress.milestone` is will have a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
   </si>
   <si>
     <t>Extension.extension:milestone.id</t>
@@ -485,7 +485,7 @@
   </si>
   <si>
     <t>Element `ResearchSubject.progress.reason` is part of an existing definition because parent element `ResearchSubject.progress` requires a cross-version extension.
-Element `ResearchSubject.progress.reason` is mapped to FHIR R4 structure `ResearchSubject`, but has no target element specified.</t>
+Element `ResearchSubject.progress.reason` is will have a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
   </si>
   <si>
     <t>Extension.extension:reason.id</t>
@@ -516,7 +516,7 @@
   </si>
   <si>
     <t>This was originally defined as the date when the change in status occurred.  This assumed all                      states were recorded which is not true.  Hence the need to track the end of the state. Element `ResearchSubject.progress.startDate` is part of an existing definition because parent element `ResearchSubject.progress` requires a cross-version extension.
-Element `ResearchSubject.progress.startDate` is mapped to FHIR R4 structure `ResearchSubject`, but has no target element specified.</t>
+Element `ResearchSubject.progress.startDate` is will have a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
   </si>
   <si>
     <t>Extension.extension:startDate.id</t>
@@ -545,7 +545,7 @@
   </si>
   <si>
     <t>See the requirement on the start date. Element `ResearchSubject.progress.endDate` is part of an existing definition because parent element `ResearchSubject.progress` requires a cross-version extension.
-Element `ResearchSubject.progress.endDate` is mapped to FHIR R4 structure `ResearchSubject`, but has no target element specified.</t>
+Element `ResearchSubject.progress.endDate` is will have a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
   </si>
   <si>
     <t>Extension.extension:endDate.id</t>

--- a/StructureDefinition-ext-R5-ResearchSubject.progress.xlsx
+++ b/StructureDefinition-ext-R5-ResearchSubject.progress.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="182">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `ResearchSubject.progress` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `ResearchSubject.progress` is will have a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
+Element `ResearchSubject.progress` has a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -343,7 +343,7 @@
   </si>
   <si>
     <t>Element `ResearchSubject.progress.type` is part of an existing definition because parent element `ResearchSubject.progress` requires a cross-version extension.
-Element `ResearchSubject.progress.type` is will have a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
+Element `ResearchSubject.progress.type` has a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -390,6 +390,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchSubject.progress.type</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -426,7 +429,7 @@
   </si>
   <si>
     <t>Element `ResearchSubject.progress.subjectState` is part of an existing definition because parent element `ResearchSubject.progress` requires a cross-version extension.
-Element `ResearchSubject.progress.subjectState` is will have a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
+Element `ResearchSubject.progress.subjectState` has a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
   </si>
   <si>
     <t>Extension.extension:subjectState.id</t>
@@ -438,6 +441,9 @@
     <t>Extension.extension:subjectState.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchSubject.progress.subjectState</t>
+  </si>
+  <si>
     <t>Extension.extension:subjectState.value[x]</t>
   </si>
   <si>
@@ -457,7 +463,7 @@
   </si>
   <si>
     <t>Element `ResearchSubject.progress.milestone` is part of an existing definition because parent element `ResearchSubject.progress` requires a cross-version extension.
-Element `ResearchSubject.progress.milestone` is will have a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
+Element `ResearchSubject.progress.milestone` has a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
   </si>
   <si>
     <t>Extension.extension:milestone.id</t>
@@ -469,6 +475,9 @@
     <t>Extension.extension:milestone.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchSubject.progress.milestone</t>
+  </si>
+  <si>
     <t>Extension.extension:milestone.value[x]</t>
   </si>
   <si>
@@ -485,7 +494,7 @@
   </si>
   <si>
     <t>Element `ResearchSubject.progress.reason` is part of an existing definition because parent element `ResearchSubject.progress` requires a cross-version extension.
-Element `ResearchSubject.progress.reason` is will have a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
+Element `ResearchSubject.progress.reason` has a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
   </si>
   <si>
     <t>Extension.extension:reason.id</t>
@@ -497,6 +506,9 @@
     <t>Extension.extension:reason.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchSubject.progress.reason</t>
+  </si>
+  <si>
     <t>Extension.extension:reason.value[x]</t>
   </si>
   <si>
@@ -516,7 +528,7 @@
   </si>
   <si>
     <t>This was originally defined as the date when the change in status occurred.  This assumed all                      states were recorded which is not true.  Hence the need to track the end of the state. Element `ResearchSubject.progress.startDate` is part of an existing definition because parent element `ResearchSubject.progress` requires a cross-version extension.
-Element `ResearchSubject.progress.startDate` is will have a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
+Element `ResearchSubject.progress.startDate` has a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
   </si>
   <si>
     <t>Extension.extension:startDate.id</t>
@@ -526,6 +538,9 @@
   </si>
   <si>
     <t>Extension.extension:startDate.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchSubject.progress.startDate</t>
   </si>
   <si>
     <t>Extension.extension:startDate.value[x]</t>
@@ -545,7 +560,7 @@
   </si>
   <si>
     <t>See the requirement on the start date. Element `ResearchSubject.progress.endDate` is part of an existing definition because parent element `ResearchSubject.progress` requires a cross-version extension.
-Element `ResearchSubject.progress.endDate` is will have a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
+Element `ResearchSubject.progress.endDate` has a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
   </si>
   <si>
     <t>Extension.extension:endDate.id</t>
@@ -555,6 +570,9 @@
   </si>
   <si>
     <t>Extension.extension:endDate.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchSubject.progress.endDate</t>
   </si>
   <si>
     <t>Extension.extension:endDate.value[x]</t>
@@ -1715,7 +1733,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1757,7 +1775,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>87</v>
@@ -1772,15 +1790,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1803,7 +1821,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1860,7 +1878,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1872,21 +1890,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1911,14 +1929,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1987,7 +2005,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2090,7 +2108,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2195,7 +2213,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2238,7 +2256,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2280,7 +2298,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>87</v>
@@ -2295,15 +2313,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2326,13 +2344,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2383,7 +2401,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2395,21 +2413,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2434,16 +2452,16 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2512,7 +2530,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -2615,7 +2633,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -2720,7 +2738,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -2763,7 +2781,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2805,7 +2823,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>87</v>
@@ -2820,15 +2838,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2851,16 +2869,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -2910,7 +2928,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2922,21 +2940,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2961,14 +2979,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3037,7 +3055,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3140,7 +3158,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3245,7 +3263,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -3288,7 +3306,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3330,7 +3348,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>87</v>
@@ -3345,15 +3363,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3376,13 +3394,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3433,7 +3451,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3445,21 +3463,21 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3484,16 +3502,16 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3562,7 +3580,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -3665,7 +3683,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -3770,7 +3788,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -3813,7 +3831,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3855,7 +3873,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>87</v>
@@ -3870,15 +3888,15 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3901,16 +3919,16 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -3960,7 +3978,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -3972,21 +3990,21 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4011,14 +4029,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4087,7 +4105,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>106</v>
@@ -4190,7 +4208,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>108</v>
@@ -4295,7 +4313,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>114</v>
@@ -4338,7 +4356,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4380,7 +4398,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>87</v>
@@ -4395,15 +4413,15 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4426,13 +4444,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4483,7 +4501,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -4495,18 +4513,18 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4588,7 +4606,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>87</v>
@@ -4603,15 +4621,15 @@
         <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4634,13 +4652,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4691,7 +4709,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -4703,10 +4721,10 @@
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-ResearchSubject.progress.xlsx
+++ b/StructureDefinition-ext-R5-ResearchSubject.progress.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-ext-R5-ResearchSubject.progress.xlsx
+++ b/StructureDefinition-ext-R5-ResearchSubject.progress.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="186">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -342,8 +342,7 @@
     <t>Identifies the aspect of the subject's journey that the state refers to.</t>
   </si>
   <si>
-    <t>Element `ResearchSubject.progress.type` is part of an existing definition because parent element `ResearchSubject.progress` requires a cross-version extension.
-Element `ResearchSubject.progress.type` has a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
+    <t>Element `ResearchSubject.progress.type` has a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -390,9 +389,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchSubject.progress.type</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -409,6 +405,15 @@
 </t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Identifies the kind of state being refered to.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-research-subject-state-type-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -428,8 +433,7 @@
     <t>The current state of the subject.</t>
   </si>
   <si>
-    <t>Element `ResearchSubject.progress.subjectState` is part of an existing definition because parent element `ResearchSubject.progress` requires a cross-version extension.
-Element `ResearchSubject.progress.subjectState` has a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
+    <t>Element `ResearchSubject.progress.subjectState` has a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
   </si>
   <si>
     <t>Extension.extension:subjectState.id</t>
@@ -441,12 +445,18 @@
     <t>Extension.extension:subjectState.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchSubject.progress.subjectState</t>
-  </si>
-  <si>
     <t>Extension.extension:subjectState.value[x]</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Indicates the progression of a study subject through a study.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-research-subject-state-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:milestone</t>
   </si>
   <si>
@@ -462,8 +472,7 @@
     <t>There can be multiple entries but it is also valid to just have the most recent.  This should npt be rlied upon as the full path the subject has taken.</t>
   </si>
   <si>
-    <t>Element `ResearchSubject.progress.milestone` is part of an existing definition because parent element `ResearchSubject.progress` requires a cross-version extension.
-Element `ResearchSubject.progress.milestone` has a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
+    <t>Element `ResearchSubject.progress.milestone` has a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
   </si>
   <si>
     <t>Extension.extension:milestone.id</t>
@@ -475,12 +484,15 @@
     <t>Extension.extension:milestone.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchSubject.progress.milestone</t>
-  </si>
-  <si>
     <t>Extension.extension:milestone.value[x]</t>
   </si>
   <si>
+    <t>Indicates the progression of a study subject through the study milestones.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-research-subject-milestone-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:reason</t>
   </si>
   <si>
@@ -493,8 +505,7 @@
     <t>The reason for the state change.  If coded it should follow the formal subject state model.</t>
   </si>
   <si>
-    <t>Element `ResearchSubject.progress.reason` is part of an existing definition because parent element `ResearchSubject.progress` requires a cross-version extension.
-Element `ResearchSubject.progress.reason` has a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
+    <t>Element `ResearchSubject.progress.reason` has a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
   </si>
   <si>
     <t>Extension.extension:reason.id</t>
@@ -506,12 +517,15 @@
     <t>Extension.extension:reason.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchSubject.progress.reason</t>
-  </si>
-  <si>
     <t>Extension.extension:reason.value[x]</t>
   </si>
   <si>
+    <t>Indicates why the state of the subject changed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-state-change-reason-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:startDate</t>
   </si>
   <si>
@@ -527,8 +541,7 @@
     <t>This is NOT the date the change in state was recorded.</t>
   </si>
   <si>
-    <t>This was originally defined as the date when the change in status occurred.  This assumed all                      states were recorded which is not true.  Hence the need to track the end of the state. Element `ResearchSubject.progress.startDate` is part of an existing definition because parent element `ResearchSubject.progress` requires a cross-version extension.
-Element `ResearchSubject.progress.startDate` has a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
+    <t>This was originally defined as the date when the change in status occurred.  This assumed all                      states were recorded which is not true.  Hence the need to track the end of the state. Element `ResearchSubject.progress.startDate` has a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
   </si>
   <si>
     <t>Extension.extension:startDate.id</t>
@@ -538,9 +551,6 @@
   </si>
   <si>
     <t>Extension.extension:startDate.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchSubject.progress.startDate</t>
   </si>
   <si>
     <t>Extension.extension:startDate.value[x]</t>
@@ -559,8 +569,7 @@
     <t>The date when the state ended.</t>
   </si>
   <si>
-    <t>See the requirement on the start date. Element `ResearchSubject.progress.endDate` is part of an existing definition because parent element `ResearchSubject.progress` requires a cross-version extension.
-Element `ResearchSubject.progress.endDate` has a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
+    <t>See the requirement on the start date. Element `ResearchSubject.progress.endDate` has a context of ResearchSubject based on following the parent source element upwards and mapping to `ResearchSubject`.</t>
   </si>
   <si>
     <t>Extension.extension:endDate.id</t>
@@ -570,9 +579,6 @@
   </si>
   <si>
     <t>Extension.extension:endDate.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ResearchSubject.progress.endDate</t>
   </si>
   <si>
     <t>Extension.extension:endDate.value[x]</t>
@@ -935,8 +941,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="75.86328125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1733,72 +1739,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1821,7 +1827,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1854,13 +1860,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -1878,7 +1884,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1890,21 +1896,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1929,14 +1935,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2005,7 +2011,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2108,7 +2114,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2213,7 +2219,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2256,7 +2262,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2298,30 +2304,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2344,13 +2350,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2377,13 +2383,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2401,7 +2407,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2413,21 +2419,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2452,16 +2458,16 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2530,7 +2536,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -2633,7 +2639,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -2738,7 +2744,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -2781,7 +2787,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2823,30 +2829,30 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2869,16 +2875,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -2904,13 +2910,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -2928,7 +2934,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2940,21 +2946,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2979,14 +2985,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3055,7 +3061,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3158,7 +3164,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3263,7 +3269,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -3306,7 +3312,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3348,30 +3354,30 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3394,13 +3400,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3427,13 +3433,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -3451,7 +3457,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3463,21 +3469,21 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3502,16 +3508,16 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3580,7 +3586,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -3683,7 +3689,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -3788,7 +3794,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -3831,7 +3837,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3873,30 +3879,30 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3919,16 +3925,16 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -3978,7 +3984,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -3990,21 +3996,21 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4029,14 +4035,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4105,7 +4111,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>106</v>
@@ -4208,7 +4214,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>108</v>
@@ -4313,7 +4319,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>114</v>
@@ -4356,7 +4362,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4398,30 +4404,30 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4444,13 +4450,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4501,7 +4507,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -4513,18 +4519,18 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4606,30 +4612,30 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4652,13 +4658,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4709,7 +4715,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -4721,10 +4727,10 @@
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
